--- a/biology/Biochimie/Enzyme_malique_à_NAD/Enzyme_malique_à_NAD.xlsx
+++ b/biology/Biochimie/Enzyme_malique_à_NAD/Enzyme_malique_à_NAD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enzyme_malique_%C3%A0_NAD</t>
+          <t>Enzyme_malique_à_NAD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enzyme malique à NAD (NAD-ME) est une oxydoréductase qui catalyse la réaction :
 (S)'-malate + NAD+  
         ⇌
     {\displaystyle \rightleftharpoons }
   pyruvate + CO2 + NADH.
-Cette enzyme intervient dans le métabolisme du pyruvate et dans la fixation du carbone. C'est l'une des trois enzymes utilisées par la fixation du carbone en C4 et par le métabolisme acide crassulacéen (CAM) avec l'enzyme malique à NADP et la phosphoénolpyruvate carboxykinase[2],[3].
+Cette enzyme intervient dans le métabolisme du pyruvate et dans la fixation du carbone. C'est l'une des trois enzymes utilisées par la fixation du carbone en C4 et par le métabolisme acide crassulacéen (CAM) avec l'enzyme malique à NADP et la phosphoénolpyruvate carboxykinase,.
 </t>
         </is>
       </c>
